--- a/data/predictions/diffs/RvD.xlsx
+++ b/data/predictions/diffs/RvD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>abortion Predicted unrestricted</t>
   </si>
@@ -596,6 +596,12 @@
   </si>
   <si>
     <t>spending/alt_energy Too little</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
 </sst>
 </file>
@@ -953,13 +959,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GM39"/>
+  <dimension ref="A1:GO39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:195">
+    <row r="1" spans="1:197">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1542,8 +1548,14 @@
       <c r="GM1" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="GN1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="2" spans="1:195">
+    <row r="2" spans="1:197">
       <c r="A2" s="1">
         <v>1972</v>
       </c>
@@ -1565,8 +1577,14 @@
       <c r="Q2">
         <v>0.0644319184548154</v>
       </c>
+      <c r="GN2">
+        <v>0.06337205386256721</v>
+      </c>
+      <c r="GO2">
+        <v>0.06528782122633213</v>
+      </c>
     </row>
-    <row r="3" spans="1:195">
+    <row r="3" spans="1:197">
       <c r="A3" s="1">
         <v>1973</v>
       </c>
@@ -1693,8 +1711,14 @@
       <c r="GG3">
         <v>0.2083510790812482</v>
       </c>
+      <c r="GN3">
+        <v>0.06800478836873336</v>
+      </c>
+      <c r="GO3">
+        <v>0.08816384318337991</v>
+      </c>
     </row>
-    <row r="4" spans="1:195">
+    <row r="4" spans="1:197">
       <c r="A4" s="1">
         <v>1974</v>
       </c>
@@ -1830,8 +1854,14 @@
       <c r="GG4">
         <v>0.116917432658018</v>
       </c>
+      <c r="GN4">
+        <v>0.04501940460501911</v>
+      </c>
+      <c r="GO4">
+        <v>0.05538780466068421</v>
+      </c>
     </row>
-    <row r="5" spans="1:195">
+    <row r="5" spans="1:197">
       <c r="A5" s="1">
         <v>1975</v>
       </c>
@@ -1988,8 +2018,14 @@
       <c r="GG5">
         <v>0.1342738833735086</v>
       </c>
+      <c r="GN5">
+        <v>0.05957911306220465</v>
+      </c>
+      <c r="GO5">
+        <v>0.06186230780697061</v>
+      </c>
     </row>
-    <row r="6" spans="1:195">
+    <row r="6" spans="1:197">
       <c r="A6" s="1">
         <v>1976</v>
       </c>
@@ -2131,8 +2167,14 @@
       <c r="GG6">
         <v>0.06293895347280987</v>
       </c>
+      <c r="GN6">
+        <v>0.03544842760778377</v>
+      </c>
+      <c r="GO6">
+        <v>0.04631255896461434</v>
+      </c>
     </row>
-    <row r="7" spans="1:195">
+    <row r="7" spans="1:197">
       <c r="A7" s="1">
         <v>1977</v>
       </c>
@@ -2292,8 +2334,14 @@
       <c r="GG7">
         <v>0.1246308926641529</v>
       </c>
+      <c r="GN7">
+        <v>0.05577216945653447</v>
+      </c>
+      <c r="GO7">
+        <v>0.05611702731305356</v>
+      </c>
     </row>
-    <row r="8" spans="1:195">
+    <row r="8" spans="1:197">
       <c r="A8" s="1">
         <v>1978</v>
       </c>
@@ -2435,8 +2483,14 @@
       <c r="GG8">
         <v>0.09633676057190327</v>
       </c>
+      <c r="GN8">
+        <v>0.05552195128335391</v>
+      </c>
+      <c r="GO8">
+        <v>0.06041647746370441</v>
+      </c>
     </row>
-    <row r="9" spans="1:195">
+    <row r="9" spans="1:197">
       <c r="A9" s="1">
         <v>1980</v>
       </c>
@@ -2569,8 +2623,14 @@
       <c r="GG9">
         <v>0.1340036537548845</v>
       </c>
+      <c r="GN9">
+        <v>0.05496370016980578</v>
+      </c>
+      <c r="GO9">
+        <v>0.06513491915690539</v>
+      </c>
     </row>
-    <row r="10" spans="1:195">
+    <row r="10" spans="1:197">
       <c r="A10" s="1">
         <v>1982</v>
       </c>
@@ -2706,8 +2766,14 @@
       <c r="GG10">
         <v>0.1807040488354754</v>
       </c>
+      <c r="GN10">
+        <v>0.08464078528023361</v>
+      </c>
+      <c r="GO10">
+        <v>0.09747536574614891</v>
+      </c>
     </row>
-    <row r="11" spans="1:195">
+    <row r="11" spans="1:197">
       <c r="A11" s="1">
         <v>1983</v>
       </c>
@@ -2864,8 +2930,14 @@
       <c r="GG11">
         <v>0.09121826228744467</v>
       </c>
+      <c r="GN11">
+        <v>0.06883488161428845</v>
+      </c>
+      <c r="GO11">
+        <v>0.07442556814735798</v>
+      </c>
     </row>
-    <row r="12" spans="1:195">
+    <row r="12" spans="1:197">
       <c r="A12" s="1">
         <v>1984</v>
       </c>
@@ -3049,8 +3121,14 @@
       <c r="GG12">
         <v>0.1477491182196591</v>
       </c>
+      <c r="GN12">
+        <v>0.05109069629356972</v>
+      </c>
+      <c r="GO12">
+        <v>0.07334332841332483</v>
+      </c>
     </row>
-    <row r="13" spans="1:195">
+    <row r="13" spans="1:197">
       <c r="A13" s="1">
         <v>1985</v>
       </c>
@@ -3246,8 +3324,14 @@
       <c r="GG13">
         <v>0.08921289915001152</v>
       </c>
+      <c r="GN13">
+        <v>0.04766735396282341</v>
+      </c>
+      <c r="GO13">
+        <v>0.06134053769369419</v>
+      </c>
     </row>
-    <row r="14" spans="1:195">
+    <row r="14" spans="1:197">
       <c r="A14" s="1">
         <v>1986</v>
       </c>
@@ -3455,8 +3539,14 @@
       <c r="GG14">
         <v>0.07954950575271436</v>
       </c>
+      <c r="GN14">
+        <v>0.0594874255599267</v>
+      </c>
+      <c r="GO14">
+        <v>0.07052519395066995</v>
+      </c>
     </row>
-    <row r="15" spans="1:195">
+    <row r="15" spans="1:197">
       <c r="A15" s="1">
         <v>1987</v>
       </c>
@@ -3640,8 +3730,14 @@
       <c r="GG15">
         <v>0.2504560462911504</v>
       </c>
+      <c r="GN15">
+        <v>0.08378539090723093</v>
+      </c>
+      <c r="GO15">
+        <v>0.09902487179227634</v>
+      </c>
     </row>
-    <row r="16" spans="1:195">
+    <row r="16" spans="1:197">
       <c r="A16" s="1">
         <v>1988</v>
       </c>
@@ -3873,8 +3969,14 @@
       <c r="GG16">
         <v>0.03994551665647461</v>
       </c>
+      <c r="GN16">
+        <v>0.04732755504470741</v>
+      </c>
+      <c r="GO16">
+        <v>0.05901726820832719</v>
+      </c>
     </row>
-    <row r="17" spans="1:195">
+    <row r="17" spans="1:197">
       <c r="A17" s="1">
         <v>1989</v>
       </c>
@@ -4091,8 +4193,14 @@
       <c r="GG17">
         <v>0.149404606189781</v>
       </c>
+      <c r="GN17">
+        <v>0.08359735415185876</v>
+      </c>
+      <c r="GO17">
+        <v>0.08522391949284648</v>
+      </c>
     </row>
-    <row r="18" spans="1:195">
+    <row r="18" spans="1:197">
       <c r="A18" s="1">
         <v>1990</v>
       </c>
@@ -4318,8 +4426,14 @@
       <c r="GG18">
         <v>0.04753443836198024</v>
       </c>
+      <c r="GN18">
+        <v>0.04903142856846278</v>
+      </c>
+      <c r="GO18">
+        <v>0.05669827749372373</v>
+      </c>
     </row>
-    <row r="19" spans="1:195">
+    <row r="19" spans="1:197">
       <c r="A19" s="1">
         <v>1991</v>
       </c>
@@ -4536,8 +4650,14 @@
       <c r="GG19">
         <v>0.05930055452016203</v>
       </c>
+      <c r="GN19">
+        <v>0.05884624391667165</v>
+      </c>
+      <c r="GO19">
+        <v>0.0665494957153145</v>
+      </c>
     </row>
-    <row r="20" spans="1:195">
+    <row r="20" spans="1:197">
       <c r="A20" s="1">
         <v>1993</v>
       </c>
@@ -4754,8 +4874,14 @@
       <c r="GG20">
         <v>0.1810438399268504</v>
       </c>
+      <c r="GN20">
+        <v>0.08372931659904501</v>
+      </c>
+      <c r="GO20">
+        <v>0.08734079008810451</v>
+      </c>
     </row>
-    <row r="21" spans="1:195">
+    <row r="21" spans="1:197">
       <c r="A21" s="1">
         <v>1994</v>
       </c>
@@ -4993,8 +5119,14 @@
       <c r="GG21">
         <v>0.134847240360534</v>
       </c>
+      <c r="GN21">
+        <v>0.08908607061578332</v>
+      </c>
+      <c r="GO21">
+        <v>0.08913828601802001</v>
+      </c>
     </row>
-    <row r="22" spans="1:195">
+    <row r="22" spans="1:197">
       <c r="A22" s="1">
         <v>1996</v>
       </c>
@@ -5232,8 +5364,14 @@
       <c r="GG22">
         <v>0.1163931714201261</v>
       </c>
+      <c r="GN22">
+        <v>0.08573158600711751</v>
+      </c>
+      <c r="GO22">
+        <v>0.09645674845840235</v>
+      </c>
     </row>
-    <row r="23" spans="1:195">
+    <row r="23" spans="1:197">
       <c r="A23" s="1">
         <v>1998</v>
       </c>
@@ -5471,8 +5609,14 @@
       <c r="GG23">
         <v>0.1202297987011377</v>
       </c>
+      <c r="GN23">
+        <v>0.07978618548158908</v>
+      </c>
+      <c r="GO23">
+        <v>0.08580643812549808</v>
+      </c>
     </row>
-    <row r="24" spans="1:195">
+    <row r="24" spans="1:197">
       <c r="A24" s="1">
         <v>2000</v>
       </c>
@@ -5719,8 +5863,14 @@
       <c r="GG24">
         <v>0.1301975830053321</v>
       </c>
+      <c r="GN24">
+        <v>0.09645140458355916</v>
+      </c>
+      <c r="GO24">
+        <v>0.09416952448753312</v>
+      </c>
     </row>
-    <row r="25" spans="1:195">
+    <row r="25" spans="1:197">
       <c r="A25" s="1">
         <v>2002</v>
       </c>
@@ -5976,8 +6126,14 @@
       <c r="GG25">
         <v>0.1258674210326597</v>
       </c>
+      <c r="GN25">
+        <v>0.09176422803523557</v>
+      </c>
+      <c r="GO25">
+        <v>0.09671711837747356</v>
+      </c>
     </row>
-    <row r="26" spans="1:195">
+    <row r="26" spans="1:197">
       <c r="A26" s="1">
         <v>2004</v>
       </c>
@@ -6263,8 +6419,14 @@
       <c r="GG26">
         <v>0.1570771826153756</v>
       </c>
+      <c r="GN26">
+        <v>0.08537684954474048</v>
+      </c>
+      <c r="GO26">
+        <v>0.09950345812318188</v>
+      </c>
     </row>
-    <row r="27" spans="1:195">
+    <row r="27" spans="1:197">
       <c r="A27" s="1">
         <v>2006</v>
       </c>
@@ -6550,8 +6712,14 @@
       <c r="GG27">
         <v>0.1725670001038678</v>
       </c>
+      <c r="GN27">
+        <v>0.09716210409719085</v>
+      </c>
+      <c r="GO27">
+        <v>0.1074028124585002</v>
+      </c>
     </row>
-    <row r="28" spans="1:195">
+    <row r="28" spans="1:197">
       <c r="A28" s="1">
         <v>2008</v>
       </c>
@@ -6837,8 +7005,14 @@
       <c r="GG28">
         <v>0.1141863941506174</v>
       </c>
+      <c r="GN28">
+        <v>0.08178861771441469</v>
+      </c>
+      <c r="GO28">
+        <v>0.09811507834023893</v>
+      </c>
     </row>
-    <row r="29" spans="1:195">
+    <row r="29" spans="1:197">
       <c r="A29" s="1">
         <v>2010</v>
       </c>
@@ -7133,8 +7307,14 @@
       <c r="GM29">
         <v>0.1225057635742111</v>
       </c>
+      <c r="GN29">
+        <v>0.1029815994457294</v>
+      </c>
+      <c r="GO29">
+        <v>0.1141841859551018</v>
+      </c>
     </row>
-    <row r="30" spans="1:195">
+    <row r="30" spans="1:197">
       <c r="A30" s="1">
         <v>2012</v>
       </c>
@@ -7429,8 +7609,14 @@
       <c r="GM30">
         <v>0.05758156180049434</v>
       </c>
+      <c r="GN30">
+        <v>0.09355639961441045</v>
+      </c>
+      <c r="GO30">
+        <v>0.1149904916624163</v>
+      </c>
     </row>
-    <row r="31" spans="1:195">
+    <row r="31" spans="1:197">
       <c r="A31" s="1">
         <v>2014</v>
       </c>
@@ -7725,8 +7911,14 @@
       <c r="GM31">
         <v>0.1053081494431607</v>
       </c>
+      <c r="GN31">
+        <v>0.09579196242741533</v>
+      </c>
+      <c r="GO31">
+        <v>0.1150678376295326</v>
+      </c>
     </row>
-    <row r="32" spans="1:195">
+    <row r="32" spans="1:197">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -8021,8 +8213,14 @@
       <c r="GM32">
         <v>0.1364167190940548</v>
       </c>
+      <c r="GN32">
+        <v>0.1177236569173039</v>
+      </c>
+      <c r="GO32">
+        <v>0.1260044950220779</v>
+      </c>
     </row>
-    <row r="33" spans="1:195">
+    <row r="33" spans="1:197">
       <c r="A33" s="1">
         <v>2018</v>
       </c>
@@ -8317,8 +8515,14 @@
       <c r="GM33">
         <v>0.1980967273971281</v>
       </c>
+      <c r="GN33">
+        <v>0.1178626964275973</v>
+      </c>
+      <c r="GO33">
+        <v>0.1382125169329668</v>
+      </c>
     </row>
-    <row r="34" spans="1:195">
+    <row r="34" spans="1:197">
       <c r="A34" s="1">
         <v>2019</v>
       </c>
@@ -8613,8 +8817,14 @@
       <c r="GL34">
         <v>0.2219743028566284</v>
       </c>
+      <c r="GN34">
+        <v>0.1208353403092671</v>
+      </c>
+      <c r="GO34">
+        <v>0.1364601414520136</v>
+      </c>
     </row>
-    <row r="35" spans="1:195">
+    <row r="35" spans="1:197">
       <c r="A35" s="1">
         <v>2020</v>
       </c>
@@ -8909,8 +9119,14 @@
       <c r="GL35">
         <v>0.2504401462371686</v>
       </c>
+      <c r="GN35">
+        <v>0.1211903627676592</v>
+      </c>
+      <c r="GO35">
+        <v>0.1438918803800114</v>
+      </c>
     </row>
-    <row r="36" spans="1:195">
+    <row r="36" spans="1:197">
       <c r="A36" s="1">
         <v>2021</v>
       </c>
@@ -9205,8 +9421,14 @@
       <c r="GL36">
         <v>0.2789244880325077</v>
       </c>
+      <c r="GN36">
+        <v>0.1279560596765174</v>
+      </c>
+      <c r="GO36">
+        <v>0.154149618360005</v>
+      </c>
     </row>
-    <row r="37" spans="1:195">
+    <row r="37" spans="1:197">
       <c r="A37" s="1">
         <v>2022</v>
       </c>
@@ -9501,8 +9723,14 @@
       <c r="GL37">
         <v>0.3073903343237142</v>
       </c>
+      <c r="GN37">
+        <v>0.1302768565108977</v>
+      </c>
+      <c r="GO37">
+        <v>0.1590271494657305</v>
+      </c>
     </row>
-    <row r="38" spans="1:195">
+    <row r="38" spans="1:197">
       <c r="A38" s="1">
         <v>2023</v>
       </c>
@@ -9797,8 +10025,14 @@
       <c r="GL38">
         <v>0.3358746732088451</v>
       </c>
+      <c r="GN38">
+        <v>0.1323621667220299</v>
+      </c>
+      <c r="GO38">
+        <v>0.166424386785574</v>
+      </c>
     </row>
-    <row r="39" spans="1:195">
+    <row r="39" spans="1:197">
       <c r="A39" s="1">
         <v>2024</v>
       </c>
@@ -10092,6 +10326,12 @@
       </c>
       <c r="GL39">
         <v>0.3643405224098017</v>
+      </c>
+      <c r="GN39">
+        <v>0.1351326435847696</v>
+      </c>
+      <c r="GO39">
+        <v>0.1751967931967772</v>
       </c>
     </row>
   </sheetData>

--- a/data/predictions/diffs/RvD.xlsx
+++ b/data/predictions/diffs/RvD.xlsx
@@ -1578,10 +1578,10 @@
         <v>0.0644319184548154</v>
       </c>
       <c r="GN2">
-        <v>0.06337205386256721</v>
+        <v>0.06429943538078436</v>
       </c>
       <c r="GO2">
-        <v>0.06528782122633213</v>
+        <v>0.06543608841660513</v>
       </c>
     </row>
     <row r="3" spans="1:197">
@@ -1855,10 +1855,10 @@
         <v>0.116917432658018</v>
       </c>
       <c r="GN4">
-        <v>0.04501940460501911</v>
+        <v>0.04664829700959273</v>
       </c>
       <c r="GO4">
-        <v>0.05538780466068421</v>
+        <v>0.05542478406486821</v>
       </c>
     </row>
     <row r="5" spans="1:197">
@@ -2168,10 +2168,10 @@
         <v>0.06293895347280987</v>
       </c>
       <c r="GN6">
-        <v>0.03544842760778377</v>
+        <v>0.03590273128381123</v>
       </c>
       <c r="GO6">
-        <v>0.04631255896461434</v>
+        <v>0.0463224251253269</v>
       </c>
     </row>
     <row r="7" spans="1:197">
@@ -2335,10 +2335,10 @@
         <v>0.1246308926641529</v>
       </c>
       <c r="GN7">
-        <v>0.05577216945653447</v>
+        <v>0.05607724625630232</v>
       </c>
       <c r="GO7">
-        <v>0.05611702731305356</v>
+        <v>0.05612288554772416</v>
       </c>
     </row>
     <row r="8" spans="1:197">
@@ -2484,10 +2484,10 @@
         <v>0.09633676057190327</v>
       </c>
       <c r="GN8">
-        <v>0.05552195128335391</v>
+        <v>0.05620660922296615</v>
       </c>
       <c r="GO8">
-        <v>0.06041647746370441</v>
+        <v>0.06043134625218616</v>
       </c>
     </row>
     <row r="9" spans="1:197">
@@ -2767,10 +2767,10 @@
         <v>0.1807040488354754</v>
       </c>
       <c r="GN10">
-        <v>0.08464078528023361</v>
+        <v>0.08597602203084673</v>
       </c>
       <c r="GO10">
-        <v>0.09747536574614891</v>
+        <v>0.09750567852760926</v>
       </c>
     </row>
     <row r="11" spans="1:197">
@@ -3122,10 +3122,10 @@
         <v>0.1477491182196591</v>
       </c>
       <c r="GN12">
-        <v>0.05109069629356972</v>
+        <v>0.05137289892935165</v>
       </c>
       <c r="GO12">
-        <v>0.07334332841332483</v>
+        <v>0.07334802894803591</v>
       </c>
     </row>
     <row r="13" spans="1:197">
@@ -3325,10 +3325,10 @@
         <v>0.08921289915001152</v>
       </c>
       <c r="GN13">
-        <v>0.04766735396282341</v>
+        <v>0.04768288963613609</v>
       </c>
       <c r="GO13">
-        <v>0.06134053769369419</v>
+        <v>0.06134078030925553</v>
       </c>
     </row>
     <row r="14" spans="1:197">
@@ -3540,10 +3540,10 @@
         <v>0.07954950575271436</v>
       </c>
       <c r="GN14">
-        <v>0.0594874255599267</v>
+        <v>0.05972122630730702</v>
       </c>
       <c r="GO14">
-        <v>0.07052519395066995</v>
+        <v>0.07052863056986887</v>
       </c>
     </row>
     <row r="15" spans="1:197">
@@ -3731,10 +3731,10 @@
         <v>0.2504560462911504</v>
       </c>
       <c r="GN15">
-        <v>0.08378539090723093</v>
+        <v>0.08470043276209566</v>
       </c>
       <c r="GO15">
-        <v>0.09902487179227634</v>
+        <v>0.09904011327288463</v>
       </c>
     </row>
     <row r="16" spans="1:197">
@@ -3970,10 +3970,10 @@
         <v>0.03994551665647461</v>
       </c>
       <c r="GN16">
-        <v>0.04732755504470741</v>
+        <v>0.04733698116461095</v>
       </c>
       <c r="GO16">
-        <v>0.05901726820832719</v>
+        <v>0.05901739218901925</v>
       </c>
     </row>
     <row r="17" spans="1:197">
@@ -4427,10 +4427,10 @@
         <v>0.04753443836198024</v>
       </c>
       <c r="GN18">
-        <v>0.04903142856846278</v>
+        <v>0.04946805071202018</v>
       </c>
       <c r="GO18">
-        <v>0.05669827749372373</v>
+        <v>0.0567041754269316</v>
       </c>
     </row>
     <row r="19" spans="1:197">
@@ -5120,7 +5120,7 @@
         <v>0.134847240360534</v>
       </c>
       <c r="GN21">
-        <v>0.08908607061578332</v>
+        <v>0.08908607061578333</v>
       </c>
       <c r="GO21">
         <v>0.08913828601802001</v>
@@ -5365,10 +5365,10 @@
         <v>0.1163931714201261</v>
       </c>
       <c r="GN22">
-        <v>0.08573158600711751</v>
+        <v>0.08608070268069629</v>
       </c>
       <c r="GO22">
-        <v>0.09645674845840235</v>
+        <v>0.09646122269444099</v>
       </c>
     </row>
     <row r="23" spans="1:197">
@@ -5610,10 +5610,10 @@
         <v>0.1202297987011377</v>
       </c>
       <c r="GN23">
-        <v>0.07978618548158908</v>
+        <v>0.07998422737116503</v>
       </c>
       <c r="GO23">
-        <v>0.08580643812549808</v>
+        <v>0.08580897620582069</v>
       </c>
     </row>
     <row r="24" spans="1:197">
@@ -6127,10 +6127,10 @@
         <v>0.1258674210326597</v>
       </c>
       <c r="GN25">
-        <v>0.09176422803523557</v>
+        <v>0.09270035569900643</v>
       </c>
       <c r="GO25">
-        <v>0.09671711837747356</v>
+        <v>0.09672825926976909</v>
       </c>
     </row>
     <row r="26" spans="1:197">
@@ -6420,10 +6420,10 @@
         <v>0.1570771826153756</v>
       </c>
       <c r="GN26">
-        <v>0.08537684954474048</v>
+        <v>0.08579997106526263</v>
       </c>
       <c r="GO26">
-        <v>0.09950345812318188</v>
+        <v>0.09950795828781112</v>
       </c>
     </row>
     <row r="27" spans="1:197">
@@ -6713,10 +6713,10 @@
         <v>0.1725670001038678</v>
       </c>
       <c r="GN27">
-        <v>0.09716210409719085</v>
+        <v>0.09767714355736157</v>
       </c>
       <c r="GO27">
-        <v>0.1074028124585002</v>
+        <v>0.1074082902284762</v>
       </c>
     </row>
     <row r="28" spans="1:197">
@@ -7006,10 +7006,10 @@
         <v>0.1141863941506174</v>
       </c>
       <c r="GN28">
-        <v>0.08178861771441469</v>
+        <v>0.08227156449717511</v>
       </c>
       <c r="GO28">
-        <v>0.09811507834023893</v>
+        <v>0.09812021478431983</v>
       </c>
     </row>
     <row r="29" spans="1:197">
